--- a/total_output.xlsx
+++ b/total_output.xlsx
@@ -240,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,21 +263,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -586,13 +764,13 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -687,7 +865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -761,90 +939,90 @@
         <v>8.9558599999993646E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>7.4617929000001846</v>
-      </c>
-      <c r="D3" s="2">
-        <v>27.885861500000239</v>
-      </c>
-      <c r="E3" s="2">
-        <v>13.30061830000003</v>
-      </c>
-      <c r="F3" s="2">
-        <v>254.98624000000001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>39.307959499999868</v>
+        <v>2.7112534000001842</v>
+      </c>
+      <c r="D3">
+        <v>13.80537270000028</v>
+      </c>
+      <c r="E3">
+        <v>7.7806313000000769</v>
+      </c>
+      <c r="F3">
+        <v>-49.009340000000009</v>
+      </c>
+      <c r="G3">
+        <v>13.75700400000008</v>
       </c>
       <c r="H3">
-        <v>4.9569522999999904</v>
-      </c>
-      <c r="I3" s="2">
-        <v>135.4207860000005</v>
+        <v>1.9969158999999821</v>
+      </c>
+      <c r="I3" s="5">
+        <v>98.217562000000441</v>
       </c>
       <c r="J3">
-        <v>9.4449400000089848E-3</v>
+        <v>-0.23955518999999331</v>
       </c>
       <c r="K3">
-        <v>-5.7805469999999932</v>
-      </c>
-      <c r="L3" s="2">
-        <v>17.50179099999994</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4.673017599999981</v>
-      </c>
-      <c r="N3" s="2">
-        <v>124.1122859999988</v>
-      </c>
-      <c r="O3" s="2">
-        <v>6.3854036999999826</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4.1902172000000446</v>
+        <v>-13.141238600000021</v>
+      </c>
+      <c r="L3">
+        <v>9.4017779999999487</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2.5030747999999718</v>
+      </c>
+      <c r="N3">
+        <v>82.512649999998459</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5.225330899999979</v>
+      </c>
+      <c r="P3">
+        <v>0.53978430000002642</v>
       </c>
       <c r="Q3">
-        <v>1.6266825999999781</v>
-      </c>
-      <c r="R3" s="2">
-        <v>20.478798799999971</v>
+        <v>-1.1334162000000201</v>
+      </c>
+      <c r="R3" s="3">
+        <v>12.798242399999969</v>
       </c>
       <c r="S3">
-        <v>7.5271009999999857E-3</v>
-      </c>
-      <c r="T3" s="2">
-        <v>3.2339187999999939</v>
-      </c>
-      <c r="U3" s="2">
-        <v>54.895607500000338</v>
-      </c>
-      <c r="V3" s="2">
-        <v>12.41219889999992</v>
+        <v>4.7268149999999051E-3</v>
+      </c>
+      <c r="T3">
+        <v>1.7819141199999939</v>
+      </c>
+      <c r="U3" s="3">
+        <v>37.844470000000499</v>
+      </c>
+      <c r="V3">
+        <v>-5.3783978000001849</v>
       </c>
       <c r="W3">
-        <v>3.482229899999993</v>
+        <v>3.6622064999999928</v>
       </c>
       <c r="X3">
-        <v>17.18910569999996</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>8.1822007999999471E-3</v>
+        <v>9.1189379999998508</v>
+      </c>
+      <c r="Y3">
+        <v>3.7616573999999388E-3</v>
       </c>
       <c r="Z3">
-        <v>-2.0070031999999991E-2</v>
+        <v>-0.51150613699999492</v>
       </c>
       <c r="AA3">
-        <v>96.250898999999634</v>
+        <v>27.44885800000036</v>
       </c>
       <c r="AB3">
-        <v>-0.80135974999999693</v>
+        <v>-1.3852965700000019</v>
       </c>
       <c r="AC3">
         <v>8.6356440000000534E-2</v>
@@ -852,11 +1030,11 @@
       <c r="AD3">
         <v>3.7489439999999998</v>
       </c>
-      <c r="AE3" s="2">
-        <v>43.76246299999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <v>32.763684999999782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -923,7 +1101,7 @@
       <c r="V4">
         <v>-4.5743285000000924</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>3.5658118000000099</v>
       </c>
       <c r="X4">
@@ -945,7 +1123,7 @@
         <v>-14.237695000000111</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -964,7 +1142,7 @@
       <c r="F5">
         <v>129.2449</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>11.96390349999959</v>
       </c>
       <c r="H5">
@@ -1319,7 +1497,7 @@
         <v>6.5817710000001357</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1414,7 +1592,7 @@
         <v>-1.358141000000495</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1424,13 +1602,13 @@
       <c r="C10">
         <v>4.21570250000015</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>15.82364390000029</v>
       </c>
       <c r="E10">
         <v>11.518681300000029</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>216.339485</v>
       </c>
       <c r="G10">
@@ -1448,19 +1626,19 @@
       <c r="K10">
         <v>-1.3902846000000739</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>14.055975599999901</v>
       </c>
       <c r="M10">
         <v>1.380545599999994</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>71.487111999998959</v>
       </c>
       <c r="O10">
         <v>4.3144922999999844</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>3.6967846000000528</v>
       </c>
       <c r="Q10">
@@ -1478,7 +1656,7 @@
       <c r="U10">
         <v>20.487006499999751</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <v>7.1602723999999629</v>
       </c>
       <c r="W10">
@@ -1604,7 +1782,7 @@
         <v>9.0491060000000267</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1693,7 +1871,7 @@
         <v>-4.810009</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1784,11 +1962,11 @@
       <c r="AD13">
         <v>2.8439009999999629</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="3">
         <v>32.931762999999712</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +2061,7 @@
         <v>29.356120999999678</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,10 +2074,10 @@
       <c r="D15">
         <v>-2.481212399999579</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>12.788098600000099</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>230.412755</v>
       </c>
       <c r="G15">
@@ -1938,7 +2116,7 @@
       <c r="R15">
         <v>3.9687479999999189</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="3">
         <v>1.1953310000000029E-2</v>
       </c>
       <c r="T15">
@@ -1953,7 +2131,7 @@
       <c r="W15">
         <v>1.941927299999971</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="3">
         <v>22.091107600000079</v>
       </c>
       <c r="Y15">
@@ -1978,7 +2156,7 @@
         <v>18.609143999999791</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -2003,7 +2181,7 @@
       <c r="H16">
         <v>2.6016578000000692</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>105.7473140000001</v>
       </c>
       <c r="J16">
@@ -2036,7 +2214,7 @@
       <c r="S16">
         <v>9.8134319999999865E-3</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="3">
         <v>2.3112458799999982</v>
       </c>
       <c r="U16">
@@ -2089,10 +2267,94 @@
         <v>46</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>-5.0306310999998987</v>
+      </c>
+      <c r="D18">
+        <v>-15.96035049999935</v>
+      </c>
+      <c r="E18">
+        <v>6.8800272999999876</v>
+      </c>
+      <c r="F18">
+        <v>-168.83410000000001</v>
+      </c>
+      <c r="G18">
+        <v>-15.98772749999994</v>
+      </c>
+      <c r="H18">
+        <v>-9.9954612999998051</v>
+      </c>
+      <c r="I18">
+        <v>41.483115999999598</v>
+      </c>
+      <c r="J18">
+        <v>-0.196362589999999</v>
+      </c>
+      <c r="K18">
+        <v>-3.7963800000001151</v>
+      </c>
+      <c r="L18">
+        <v>-11.895965400000099</v>
+      </c>
+      <c r="M18">
+        <v>-0.36299885000000159</v>
+      </c>
+      <c r="N18">
+        <v>-81.830316000003847</v>
+      </c>
+      <c r="O18">
+        <v>1.6665120000000251</v>
+      </c>
+      <c r="P18">
+        <v>-1.0912039999999099</v>
+      </c>
+      <c r="Q18">
+        <v>-0.3089131000000242</v>
+      </c>
+      <c r="R18">
+        <v>-13.753286200000151</v>
+      </c>
+      <c r="S18">
+        <v>-1.16036500000002E-3</v>
+      </c>
+      <c r="T18">
+        <v>0.90981350000000361</v>
+      </c>
+      <c r="U18">
+        <v>-46.670653999999701</v>
+      </c>
+      <c r="V18">
+        <v>-2.704915699999948</v>
+      </c>
+      <c r="W18">
+        <v>0.37047349999999979</v>
+      </c>
+      <c r="X18">
+        <v>6.4800426000004228</v>
+      </c>
+      <c r="Y18">
+        <v>4.5785726000000821E-3</v>
+      </c>
+      <c r="Z18">
+        <v>0.28645584099999849</v>
       </c>
       <c r="AA18">
         <v>81.022008999994284</v>
+      </c>
+      <c r="AB18">
+        <v>-1.1727526799999961</v>
+      </c>
+      <c r="AC18">
+        <v>0.1042426000000006</v>
+      </c>
+      <c r="AD18">
+        <v>-0.45242700000010272</v>
+      </c>
+      <c r="AE18">
+        <v>14.558022999999769</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2100,10 +2362,94 @@
         <v>47</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>-5.9600681999998786</v>
+      </c>
+      <c r="D19">
+        <v>-14.7760471999998</v>
+      </c>
+      <c r="E19">
+        <v>7.8484867999999413</v>
+      </c>
+      <c r="F19">
+        <v>-21.107074999999959</v>
+      </c>
+      <c r="G19">
+        <v>-8.9778439999995996</v>
+      </c>
+      <c r="H19">
+        <v>-6.4917177999997362</v>
+      </c>
+      <c r="I19">
+        <v>65.844775999999513</v>
+      </c>
+      <c r="J19">
+        <v>-8.5219810000001672E-2</v>
+      </c>
+      <c r="K19">
+        <v>-3.0236656000001609</v>
+      </c>
+      <c r="L19">
+        <v>-0.85605360000026209</v>
+      </c>
+      <c r="M19">
+        <v>0.39734360000004598</v>
+      </c>
+      <c r="N19">
+        <v>-29.984372000001731</v>
+      </c>
+      <c r="O19">
+        <v>2.3711063000000019</v>
+      </c>
+      <c r="P19">
+        <v>0.38363440000009391</v>
+      </c>
+      <c r="Q19">
+        <v>5.2183999999995657E-2</v>
+      </c>
+      <c r="R19">
+        <v>-5.0387798000000776</v>
+      </c>
+      <c r="S19">
+        <v>-8.0509299999993137E-4</v>
+      </c>
+      <c r="T19">
+        <v>1.685561650000005</v>
+      </c>
+      <c r="U19">
+        <v>-30.80114050000018</v>
+      </c>
+      <c r="V19">
+        <v>-0.30790169999996031</v>
+      </c>
+      <c r="W19">
+        <v>1.855121699999976</v>
+      </c>
+      <c r="X19">
+        <v>7.4189723000001262</v>
+      </c>
+      <c r="Y19">
+        <v>2.7411623999999799E-3</v>
+      </c>
+      <c r="Z19">
+        <v>0.43647916300000411</v>
       </c>
       <c r="AA19">
         <v>90.342383499997737</v>
+      </c>
+      <c r="AB19">
+        <v>-0.95524834999997454</v>
+      </c>
+      <c r="AC19">
+        <v>6.2718859999998058E-2</v>
+      </c>
+      <c r="AD19">
+        <v>0.19805699999998849</v>
+      </c>
+      <c r="AE19">
+        <v>12.5075519999995</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2369,7 +2715,7 @@
         <v>-1.02149428</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2449,7 +2795,7 @@
         <v>-0.48274074999999189</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2805,7 @@
       <c r="C25">
         <v>5.1032988999998734</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>17.434116400000189</v>
       </c>
       <c r="E25">
@@ -2498,7 +2844,7 @@
       <c r="P25">
         <v>-3.4692140999999088</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>3.332335899999971</v>
       </c>
       <c r="R25">
@@ -2544,14 +2890,14 @@
         <v>9.3221530000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>9.0140163000000477</v>
       </c>
       <c r="D26">
@@ -2563,7 +2909,7 @@
       <c r="F26">
         <v>-53.239944999999963</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>32.427375999999398</v>
       </c>
       <c r="H26">
@@ -2575,7 +2921,7 @@
       <c r="J26">
         <v>-0.17965853999998641</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>18.57460099999993</v>
       </c>
       <c r="L26">
@@ -2728,7 +3074,7 @@
         <v>2.3998800000001368</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2823,14 +3169,14 @@
         <v>-1.3518980000000691</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>7.7337839999998854</v>
       </c>
       <c r="D29">
@@ -3193,22 +3539,202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C5A0DCB-D5F2-4E52-B7E9-1972DE48E268}</x14:id>
+          <x14:id>{34917E43-11AE-4A77-97B9-EB296FC2CC67}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:AE1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AE1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3216,11 +3742,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C5A0DCB-D5F2-4E52-B7E9-1972DE48E268}">
+          <x14:cfRule type="dataBar" id="{34917E43-11AE-4A77-97B9-EB296FC2CC67}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -3238,14 +3764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -3418,85 +3939,85 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.186</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
         <v>0.12</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.17</v>
+      </c>
+      <c r="J3">
+        <v>-0.03</v>
+      </c>
+      <c r="K3">
+        <v>-0.19</v>
+      </c>
+      <c r="L3">
+        <v>0.12</v>
+      </c>
+      <c r="M3">
+        <v>0.11</v>
+      </c>
+      <c r="N3">
+        <v>0.11</v>
+      </c>
+      <c r="O3">
         <v>0.15</v>
       </c>
-      <c r="E3">
-        <v>0.18</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
-      </c>
-      <c r="G3">
+      <c r="P3">
+        <v>0.04</v>
+      </c>
+      <c r="Q3">
+        <v>-0.02</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3">
-        <v>0.09</v>
-      </c>
-      <c r="I3">
-        <v>0.23</v>
-      </c>
-      <c r="J3">
+      <c r="T3">
+        <v>0.21</v>
+      </c>
+      <c r="U3">
+        <v>0.16</v>
+      </c>
+      <c r="V3">
+        <v>-0.06</v>
+      </c>
+      <c r="W3">
+        <v>0.33</v>
+      </c>
+      <c r="X3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z3">
         <v>0.03</v>
       </c>
-      <c r="K3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.19</v>
-      </c>
-      <c r="M3">
-        <v>0.17</v>
-      </c>
-      <c r="N3">
-        <v>0.15</v>
-      </c>
-      <c r="O3">
-        <v>0.18</v>
-      </c>
-      <c r="P3">
-        <v>0.13</v>
-      </c>
-      <c r="Q3">
-        <v>0.1</v>
-      </c>
-      <c r="R3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S3">
-        <v>0.19</v>
-      </c>
-      <c r="T3">
-        <v>0.35</v>
-      </c>
-      <c r="U3">
-        <v>0.22</v>
-      </c>
-      <c r="V3">
-        <v>0.26</v>
-      </c>
-      <c r="W3">
-        <v>0.34</v>
-      </c>
-      <c r="X3">
-        <v>0.26</v>
-      </c>
-      <c r="Y3">
-        <v>0.27</v>
-      </c>
-      <c r="Z3">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="AA3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AB3">
-        <v>-0.11</v>
+        <v>-0.25</v>
       </c>
       <c r="AC3">
         <v>0.43</v>
@@ -3505,7 +4026,7 @@
         <v>0.42</v>
       </c>
       <c r="AE3">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -4741,10 +5262,94 @@
         <v>46</v>
       </c>
       <c r="B18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="F18">
+        <v>0.02</v>
+      </c>
+      <c r="G18">
+        <v>0.01</v>
+      </c>
+      <c r="H18">
+        <v>-0.01</v>
+      </c>
+      <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.01</v>
+      </c>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.02</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0.04</v>
+      </c>
+      <c r="P18">
+        <v>0.01</v>
+      </c>
+      <c r="Q18">
+        <v>0.02</v>
+      </c>
+      <c r="R18">
+        <v>-0.03</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.06</v>
+      </c>
+      <c r="U18">
+        <v>-0.02</v>
+      </c>
+      <c r="V18">
+        <v>0.02</v>
+      </c>
+      <c r="W18">
+        <v>0.06</v>
+      </c>
+      <c r="X18">
+        <v>0.05</v>
+      </c>
+      <c r="Y18">
+        <v>0.08</v>
+      </c>
+      <c r="Z18">
+        <v>0.13</v>
       </c>
       <c r="AA18">
         <v>0.04</v>
+      </c>
+      <c r="AB18">
+        <v>-0.02</v>
+      </c>
+      <c r="AC18">
+        <v>0.16</v>
+      </c>
+      <c r="AD18">
+        <v>0.01</v>
+      </c>
+      <c r="AE18">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -4752,9 +5357,93 @@
         <v>47</v>
       </c>
       <c r="B19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <v>-0.01</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.06</v>
+      </c>
+      <c r="F19">
+        <v>0.02</v>
+      </c>
+      <c r="G19">
+        <v>0.02</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.02</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+      <c r="L19">
+        <v>0.03</v>
+      </c>
+      <c r="M19">
+        <v>0.03</v>
+      </c>
+      <c r="N19">
+        <v>0.02</v>
+      </c>
+      <c r="O19">
         <v>0.05</v>
       </c>
+      <c r="P19">
+        <v>0.02</v>
+      </c>
+      <c r="Q19">
+        <v>0.03</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.01</v>
+      </c>
+      <c r="T19">
+        <v>0.1</v>
+      </c>
+      <c r="U19">
+        <v>-0.01</v>
+      </c>
+      <c r="V19">
+        <v>0.02</v>
+      </c>
+      <c r="W19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.06</v>
+      </c>
+      <c r="Y19">
+        <v>0.08</v>
+      </c>
+      <c r="Z19">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="AA19">
+        <v>0.05</v>
+      </c>
+      <c r="AB19">
+        <v>-0.02</v>
+      </c>
+      <c r="AC19">
+        <v>0.17</v>
+      </c>
+      <c r="AD19">
+        <v>0.04</v>
+      </c>
+      <c r="AE19">
         <v>0.05</v>
       </c>
     </row>
@@ -5844,40 +6533,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{703DF191-218D-410F-A96D-A11F2C3A4BAF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{703DF191-218D-410F-A96D-A11F2C3A4BAF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5886,10 +6542,13 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -6056,82 +6715,82 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>9.6100000000001842</v>
+        <v>4.8600000000001842</v>
       </c>
       <c r="C3">
-        <v>34.050000000000239</v>
+        <v>19.97000000000028</v>
       </c>
       <c r="D3">
-        <v>15.53000000000003</v>
+        <v>10.01000000000008</v>
       </c>
       <c r="E3">
-        <v>366</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>48.649999999999856</v>
+        <v>23.10000000000008</v>
       </c>
       <c r="G3">
-        <v>7.4499999999999886</v>
+        <v>4.4899999999999807</v>
       </c>
       <c r="H3">
-        <v>152.60000000000051</v>
+        <v>115.4000000000004</v>
       </c>
       <c r="I3">
-        <v>0.128000000000009</v>
+        <v>-0.12099999999999329</v>
       </c>
       <c r="J3">
-        <v>-4.1799999999999926</v>
+        <v>-11.54000000000002</v>
       </c>
       <c r="K3">
-        <v>20.219999999999938</v>
+        <v>12.119999999999949</v>
       </c>
       <c r="L3">
-        <v>5.4899999999999807</v>
+        <v>3.3199999999999719</v>
       </c>
       <c r="M3">
-        <v>149.79999999999879</v>
+        <v>108.1999999999985</v>
       </c>
       <c r="N3">
-        <v>7.4099999999999824</v>
+        <v>6.2499999999999787</v>
       </c>
       <c r="O3">
-        <v>5.2000000000000446</v>
+        <v>1.550000000000026</v>
       </c>
       <c r="P3">
-        <v>2.219999999999978</v>
+        <v>-0.54000000000001991</v>
       </c>
       <c r="Q3">
-        <v>22.55999999999997</v>
+        <v>14.879999999999971</v>
       </c>
       <c r="R3">
-        <v>8.6999999999999855E-3</v>
+        <v>5.8999999999999053E-3</v>
       </c>
       <c r="S3">
-        <v>3.4919999999999942</v>
+        <v>2.0399999999999929</v>
       </c>
       <c r="T3">
-        <v>62.250000000000327</v>
+        <v>45.200000000000493</v>
       </c>
       <c r="U3">
-        <v>13.789999999999919</v>
+        <v>-4.0000000000001856</v>
       </c>
       <c r="V3">
-        <v>3.7499999999999929</v>
+        <v>3.9299999999999931</v>
       </c>
       <c r="W3">
-        <v>19.10999999999996</v>
+        <v>11.03999999999985</v>
       </c>
       <c r="X3">
-        <v>9.1199999999999476E-3</v>
+        <v>4.6999999999999386E-3</v>
       </c>
       <c r="Y3">
-        <v>5.0000000000000036E-3</v>
+        <v>-0.48649999999999488</v>
       </c>
       <c r="Z3">
-        <v>131.39999999999961</v>
+        <v>62.60000000000035</v>
       </c>
       <c r="AA3">
-        <v>-0.68499999999999672</v>
+        <v>-1.2690000000000019</v>
       </c>
       <c r="AB3">
         <v>9.2000000000000526E-2</v>
@@ -6140,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="AD3">
-        <v>49.499999999999893</v>
+        <v>38.499999999999773</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -6867,7 +7526,7 @@
         <v>29.60000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -6953,7 +7612,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -6978,7 +7637,7 @@
       <c r="H13">
         <v>74.200000000000273</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.36199999999999649</v>
       </c>
       <c r="J13">
@@ -7333,16 +7992,184 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B18">
+        <v>1.3900000000001009</v>
+      </c>
+      <c r="C18">
+        <v>5.7300000000006426</v>
+      </c>
+      <c r="D18">
+        <v>14.02999999999999</v>
+      </c>
+      <c r="E18">
+        <v>280</v>
+      </c>
+      <c r="F18">
+        <v>13.75000000000006</v>
+      </c>
+      <c r="G18">
+        <v>-1.1499999999998061</v>
+      </c>
+      <c r="H18">
+        <v>95.199999999999591</v>
+      </c>
+      <c r="I18">
+        <v>0.21300000000000099</v>
+      </c>
+      <c r="J18">
+        <v>2.7199999999998852</v>
+      </c>
+      <c r="K18">
+        <v>-1.5800000000000971</v>
+      </c>
+      <c r="L18">
+        <v>2.8149999999999982</v>
+      </c>
+      <c r="M18">
+        <v>29.999999999996142</v>
+      </c>
+      <c r="N18">
+        <v>4.3000000000000256</v>
+      </c>
+      <c r="O18">
+        <v>2.4800000000000888</v>
+      </c>
+      <c r="P18">
+        <v>1.8699999999999759</v>
+      </c>
+      <c r="Q18">
+        <v>-7.1800000000001489</v>
+      </c>
+      <c r="R18">
+        <v>6.9999999999997755E-4</v>
+      </c>
+      <c r="S18">
+        <v>1.740000000000004</v>
+      </c>
+      <c r="T18">
+        <v>-22.199999999999712</v>
+      </c>
+      <c r="U18">
+        <v>2.49000000000005</v>
+      </c>
+      <c r="V18">
+        <v>0.9299999999999996</v>
+      </c>
+      <c r="W18">
+        <v>12.160000000000419</v>
+      </c>
+      <c r="X18">
+        <v>6.6600000000000834E-3</v>
+      </c>
+      <c r="Y18">
+        <v>0.33789999999999848</v>
+      </c>
       <c r="Z18">
         <v>199.2999999999943</v>
+      </c>
+      <c r="AA18">
+        <v>-0.5799999999999963</v>
+      </c>
+      <c r="AB18">
+        <v>0.1240000000000006</v>
+      </c>
+      <c r="AC18">
+        <v>0.29999999999989752</v>
+      </c>
+      <c r="AD18">
+        <v>31.499999999999769</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>-1.09999999999988</v>
+      </c>
+      <c r="C19">
+        <v>2.6600000000001951</v>
+      </c>
+      <c r="D19">
+        <v>13.439999999999941</v>
+      </c>
+      <c r="E19">
+        <v>342.5</v>
+      </c>
+      <c r="F19">
+        <v>14.5000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.68000000000026273</v>
+      </c>
+      <c r="H19">
+        <v>108.7999999999995</v>
+      </c>
+      <c r="I19">
+        <v>0.22099999999999831</v>
+      </c>
+      <c r="J19">
+        <v>2.3199999999998382</v>
+      </c>
+      <c r="K19">
+        <v>7.3199999999997356</v>
+      </c>
+      <c r="L19">
+        <v>3.0200000000000462</v>
+      </c>
+      <c r="M19">
+        <v>60.399999999998258</v>
+      </c>
+      <c r="N19">
+        <v>4.4500000000000028</v>
+      </c>
+      <c r="O19">
+        <v>3.1000000000000929</v>
+      </c>
+      <c r="P19">
+        <v>1.7399999999999951</v>
+      </c>
+      <c r="Q19">
+        <v>0.17999999999992231</v>
+      </c>
+      <c r="R19">
+        <v>9.0000000000006698E-4</v>
+      </c>
+      <c r="S19">
+        <v>2.3590000000000049</v>
+      </c>
+      <c r="T19">
+        <v>-11.050000000000191</v>
+      </c>
+      <c r="U19">
+        <v>3.690000000000039</v>
+      </c>
+      <c r="V19">
+        <v>2.329999999999977</v>
+      </c>
+      <c r="W19">
+        <v>12.05000000000013</v>
+      </c>
+      <c r="X19">
+        <v>4.2399999999999799E-3</v>
+      </c>
+      <c r="Y19">
+        <v>0.48790000000000411</v>
+      </c>
       <c r="Z19">
         <v>180.2499999999977</v>
+      </c>
+      <c r="AA19">
+        <v>-0.45899999999997432</v>
+      </c>
+      <c r="AB19">
+        <v>7.3999999999998067E-2</v>
+      </c>
+      <c r="AC19">
+        <v>0.69999999999998852</v>
+      </c>
+      <c r="AD19">
+        <v>25.7999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -8392,6 +9219,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8400,14 +9239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -9851,16 +10685,184 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>299</v>
+      </c>
+      <c r="D18">
+        <v>211</v>
+      </c>
+      <c r="E18">
+        <v>263</v>
+      </c>
+      <c r="F18">
+        <v>229</v>
+      </c>
+      <c r="G18">
+        <v>153</v>
+      </c>
+      <c r="H18">
+        <v>204</v>
+      </c>
+      <c r="I18">
+        <v>131</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18">
+        <v>247</v>
+      </c>
+      <c r="L18">
+        <v>252</v>
+      </c>
+      <c r="M18">
+        <v>314</v>
+      </c>
+      <c r="N18">
+        <v>170</v>
+      </c>
+      <c r="O18">
+        <v>145</v>
+      </c>
+      <c r="P18">
+        <v>150</v>
+      </c>
+      <c r="Q18">
+        <v>171</v>
+      </c>
+      <c r="R18">
+        <v>24</v>
+      </c>
+      <c r="S18">
+        <v>167</v>
+      </c>
+      <c r="T18">
+        <v>140</v>
+      </c>
+      <c r="U18">
+        <v>145</v>
+      </c>
+      <c r="V18">
+        <v>38</v>
+      </c>
+      <c r="W18">
+        <v>60</v>
+      </c>
+      <c r="X18">
+        <v>80</v>
+      </c>
+      <c r="Y18">
+        <v>13</v>
+      </c>
       <c r="Z18">
         <v>154</v>
+      </c>
+      <c r="AA18">
+        <v>66</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>165</v>
+      </c>
+      <c r="E19">
+        <v>213</v>
+      </c>
+      <c r="F19">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>124</v>
+      </c>
+      <c r="H19">
+        <v>163</v>
+      </c>
+      <c r="I19">
+        <v>98</v>
+      </c>
+      <c r="J19">
+        <v>164</v>
+      </c>
+      <c r="K19">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <v>208</v>
+      </c>
+      <c r="M19">
+        <v>254</v>
+      </c>
+      <c r="N19">
+        <v>134</v>
+      </c>
+      <c r="O19">
+        <v>110</v>
+      </c>
+      <c r="P19">
+        <v>116</v>
+      </c>
+      <c r="Q19">
+        <v>136</v>
+      </c>
+      <c r="R19">
+        <v>22</v>
+      </c>
+      <c r="S19">
+        <v>135</v>
+      </c>
+      <c r="T19">
+        <v>113</v>
+      </c>
+      <c r="U19">
+        <v>110</v>
+      </c>
+      <c r="V19">
+        <v>32</v>
+      </c>
+      <c r="W19">
+        <v>49</v>
+      </c>
+      <c r="X19">
+        <v>57</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
       <c r="Z19">
         <v>117</v>
+      </c>
+      <c r="AA19">
+        <v>56</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -11087,82 +12089,82 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.32033333333333952</v>
+        <v>0.16200000000000611</v>
       </c>
       <c r="C3">
-        <v>0.40058823529412052</v>
+        <v>0.2349411764705916</v>
       </c>
       <c r="D3">
-        <v>0.23530303030303079</v>
+        <v>0.15166666666666781</v>
       </c>
       <c r="E3">
-        <v>5.6307692307692312</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="F3">
-        <v>0.6756944444444426</v>
+        <v>0.32083333333333441</v>
       </c>
       <c r="G3">
-        <v>0.1732558139534881</v>
+        <v>0.1044186046511623</v>
       </c>
       <c r="H3">
-        <v>2.3476923076923151</v>
+        <v>1.775384615384622</v>
       </c>
       <c r="I3">
-        <v>3.3684210526318151E-3</v>
+        <v>-3.184210526315615E-3</v>
       </c>
       <c r="J3">
-        <v>-8.5306122448979463E-2</v>
+        <v>-0.23551020408163309</v>
       </c>
       <c r="K3">
-        <v>0.3110769230769222</v>
+        <v>0.18646153846153771</v>
       </c>
       <c r="L3">
-        <v>8.4461538461538158E-2</v>
+        <v>5.1076923076922652E-2</v>
       </c>
       <c r="M3">
-        <v>2.0805555555555388</v>
+        <v>1.502777777777756</v>
       </c>
       <c r="N3">
-        <v>0.112272727272727</v>
+        <v>9.4696969696969377E-2</v>
       </c>
       <c r="O3">
-        <v>0.12682926829268401</v>
+        <v>3.7804878048781132E-2</v>
       </c>
       <c r="P3">
-        <v>5.4146341463414099E-2</v>
+        <v>-1.317073170731756E-2</v>
       </c>
       <c r="Q3">
-        <v>0.4177777777777773</v>
+        <v>0.275555555555555</v>
       </c>
       <c r="R3">
-        <v>5.7999999999999903E-4</v>
+        <v>3.9333333333332697E-4</v>
       </c>
       <c r="S3">
-        <v>6.7153846153846036E-2</v>
+        <v>3.9230769230769097E-2</v>
       </c>
       <c r="T3">
-        <v>1.482142857142865</v>
+        <v>1.0761904761904879</v>
       </c>
       <c r="U3">
-        <v>0.36289473684210322</v>
+        <v>-0.10526315789474169</v>
       </c>
       <c r="V3">
-        <v>0.2205882352941172</v>
+        <v>0.2311764705882349</v>
       </c>
       <c r="W3">
-        <v>0.9554999999999978</v>
+        <v>0.55199999999999239</v>
       </c>
       <c r="X3">
-        <v>2.6057142857142712E-4</v>
+        <v>1.3428571428571249E-4</v>
       </c>
       <c r="Y3">
-        <v>1.6666666666666681E-3</v>
+        <v>-0.16216666666666499</v>
       </c>
       <c r="Z3">
-        <v>2.856521739130427</v>
+        <v>1.360869565217399</v>
       </c>
       <c r="AA3">
-        <v>-4.8928571428571203E-2</v>
+        <v>-9.0642857142857261E-2</v>
       </c>
       <c r="AB3">
         <v>4.6000000000000263E-2</v>
@@ -11171,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="AD3">
-        <v>1.414285714285711</v>
+        <v>1.099999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -12364,16 +13366,184 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B18">
+        <v>1.5444444444445571E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.9163879598664359E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.6492890995260595E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.064638783269962</v>
+      </c>
+      <c r="F18">
+        <v>6.0043668122271E-2</v>
+      </c>
+      <c r="G18">
+        <v>-7.516339869279777E-3</v>
+      </c>
+      <c r="H18">
+        <v>0.46666666666666468</v>
+      </c>
+      <c r="I18">
+        <v>1.6259541984732901E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.359999999999943E-2</v>
+      </c>
+      <c r="K18">
+        <v>-6.3967611336036316E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.1170634920634911E-2</v>
+      </c>
+      <c r="M18">
+        <v>9.5541401273873047E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.529411764705897E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.710344827586268E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.246666666666651E-2</v>
+      </c>
+      <c r="Q18">
+        <v>-4.1988304093568123E-2</v>
+      </c>
+      <c r="R18">
+        <v>2.9166666666665731E-5</v>
+      </c>
+      <c r="S18">
+        <v>1.041916167664673E-2</v>
+      </c>
+      <c r="T18">
+        <v>-0.1585714285714265</v>
+      </c>
+      <c r="U18">
+        <v>1.7172413793103799E-2</v>
+      </c>
+      <c r="V18">
+        <v>2.44736842105263E-2</v>
+      </c>
+      <c r="W18">
+        <v>0.20266666666667371</v>
+      </c>
+      <c r="X18">
+        <v>8.3250000000001034E-5</v>
+      </c>
+      <c r="Y18">
+        <v>2.5992307692307579E-2</v>
+      </c>
       <c r="Z18">
         <v>1.294155844155807</v>
+      </c>
+      <c r="AA18">
+        <v>-8.7878787878787317E-3</v>
+      </c>
+      <c r="AB18">
+        <v>1.77142857142858E-2</v>
+      </c>
+      <c r="AC18">
+        <v>4.9999999999982912E-2</v>
+      </c>
+      <c r="AD18">
+        <v>0.29999999999999782</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>-1.617647058823353E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.1083333333334141E-2</v>
+      </c>
+      <c r="D19">
+        <v>8.1454545454545099E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.607981220657277</v>
+      </c>
+      <c r="F19">
+        <v>8.0110497237571243E-2</v>
+      </c>
+      <c r="G19">
+        <v>5.4838709677440542E-3</v>
+      </c>
+      <c r="H19">
+        <v>0.66748466257668404</v>
+      </c>
+      <c r="I19">
+        <v>2.2551020408163088E-3</v>
+      </c>
+      <c r="J19">
+        <v>1.4146341463413641E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.7346938775508862E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.4519230769230991E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.23779527559054431</v>
+      </c>
+      <c r="N19">
+        <v>3.3208955223880621E-2</v>
+      </c>
+      <c r="O19">
+        <v>2.8181818181819029E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.499999999999996E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.3235294117641351E-3</v>
+      </c>
+      <c r="R19">
+        <v>4.0909090909093951E-5</v>
+      </c>
+      <c r="S19">
+        <v>1.7474074074074111E-2</v>
+      </c>
+      <c r="T19">
+        <v>-9.7787610619470666E-2</v>
+      </c>
+      <c r="U19">
+        <v>3.3545454545454899E-2</v>
+      </c>
+      <c r="V19">
+        <v>7.2812499999999267E-2</v>
+      </c>
+      <c r="W19">
+        <v>0.24591836734694131</v>
+      </c>
+      <c r="X19">
+        <v>7.4385964912280353E-5</v>
+      </c>
+      <c r="Y19">
+        <v>3.7530769230769548E-2</v>
+      </c>
       <c r="Z19">
         <v>1.5405982905982709</v>
+      </c>
+      <c r="AA19">
+        <v>-8.1964285714281118E-3</v>
+      </c>
+      <c r="AB19">
+        <v>1.849999999999952E-2</v>
+      </c>
+      <c r="AC19">
+        <v>0.1749999999999971</v>
+      </c>
+      <c r="AD19">
+        <v>0.31463414634145742</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -13600,82 +14770,82 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>3.64</v>
+        <v>1.9</v>
       </c>
       <c r="C3">
-        <v>12.61</v>
+        <v>7.57</v>
       </c>
       <c r="D3">
-        <v>11.88</v>
+        <v>7.63</v>
       </c>
       <c r="E3">
-        <v>5.42</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="F3">
-        <v>9.82</v>
+        <v>4.72</v>
       </c>
       <c r="G3">
-        <v>3.680000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="H3">
-        <v>15.03</v>
+        <v>11.34</v>
       </c>
       <c r="I3">
-        <v>1.07</v>
+        <v>-1.01</v>
       </c>
       <c r="J3">
-        <v>-3.58</v>
+        <v>-9.4</v>
       </c>
       <c r="K3">
-        <v>12.56</v>
+        <v>7.66</v>
       </c>
       <c r="L3">
-        <v>11.34</v>
+        <v>7.03</v>
       </c>
       <c r="M3">
-        <v>10.86</v>
+        <v>7.87</v>
       </c>
       <c r="N3">
-        <v>12.05</v>
+        <v>10.08</v>
       </c>
       <c r="O3">
-        <v>5.28</v>
+        <v>1.58</v>
       </c>
       <c r="P3">
-        <v>3.96</v>
+        <v>-0.94</v>
       </c>
       <c r="Q3">
-        <v>15.31</v>
+        <v>10.11</v>
       </c>
       <c r="R3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S3">
+        <v>10.99</v>
+      </c>
+      <c r="T3">
+        <v>6.7099999999999991</v>
+      </c>
+      <c r="U3">
+        <v>-2.29</v>
+      </c>
+      <c r="V3">
+        <v>5.68</v>
+      </c>
+      <c r="W3">
         <v>2.89</v>
       </c>
-      <c r="S3">
-        <v>18.43</v>
-      </c>
-      <c r="T3">
-        <v>9.26</v>
-      </c>
-      <c r="U3">
-        <v>9.85</v>
-      </c>
-      <c r="V3">
-        <v>5.71</v>
-      </c>
-      <c r="W3">
-        <v>5.15</v>
-      </c>
       <c r="X3">
-        <v>9.3000000000000007</v>
+        <v>4.76</v>
       </c>
       <c r="Y3">
-        <v>0.84</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="Z3">
-        <v>4.46</v>
+        <v>2.15</v>
       </c>
       <c r="AA3">
-        <v>-1.56</v>
+        <v>-3.46</v>
       </c>
       <c r="AB3">
         <v>0.85000000000000009</v>
@@ -13684,7 +14854,7 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="AD3">
-        <v>7.91</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -14877,16 +16047,184 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B18">
+        <v>0.2299999999999997</v>
+      </c>
+      <c r="C18">
+        <v>1.22</v>
+      </c>
+      <c r="D18">
+        <v>10.8</v>
+      </c>
+      <c r="E18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F18">
+        <v>2.5700000000000012</v>
+      </c>
+      <c r="G18">
+        <v>-0.78000000000000014</v>
+      </c>
+      <c r="H18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I18">
+        <v>1.77</v>
+      </c>
+      <c r="J18">
+        <v>1.78</v>
+      </c>
+      <c r="K18">
+        <v>-0.74000000000000055</v>
+      </c>
+      <c r="L18">
+        <v>5.59</v>
+      </c>
+      <c r="M18">
+        <v>1.5599999999999989</v>
+      </c>
+      <c r="N18">
+        <v>6.82</v>
+      </c>
+      <c r="O18">
+        <v>1.92</v>
+      </c>
+      <c r="P18">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>-4.9300000000000006</v>
+      </c>
+      <c r="R18">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="S18">
+        <v>10.44</v>
+      </c>
+      <c r="T18">
+        <v>-3.31</v>
+      </c>
+      <c r="U18">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="V18">
+        <v>2.16</v>
+      </c>
+      <c r="W18">
+        <v>3.26</v>
+      </c>
+      <c r="X18">
+        <v>6.77</v>
+      </c>
+      <c r="Y18">
+        <v>1.64</v>
+      </c>
       <c r="Z18">
         <v>6.72</v>
+      </c>
+      <c r="AA18">
+        <v>-1.359999999999999</v>
+      </c>
+      <c r="AB18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AC18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD18">
+        <v>4.91</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>-0.51</v>
+      </c>
+      <c r="C19">
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="D19">
+        <v>10.38</v>
+      </c>
+      <c r="E19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F19">
+        <v>2.76</v>
+      </c>
+      <c r="G19">
+        <v>6.0000000000000282E-2</v>
+      </c>
+      <c r="H19">
+        <v>10.69</v>
+      </c>
+      <c r="I19">
+        <v>1.84</v>
+      </c>
+      <c r="J19">
+        <v>1.580000000000001</v>
+      </c>
+      <c r="K19">
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="L19">
+        <v>5.98</v>
+      </c>
+      <c r="M19">
+        <v>3.819999999999999</v>
+      </c>
+      <c r="N19">
+        <v>6.91</v>
+      </c>
+      <c r="O19">
+        <v>2.75</v>
+      </c>
+      <c r="P19">
+        <v>2.9099999999999988</v>
+      </c>
+      <c r="Q19">
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="R19">
+        <v>0.13999999999999951</v>
+      </c>
+      <c r="S19">
+        <v>13.44</v>
+      </c>
+      <c r="T19">
+        <v>-1.66</v>
+      </c>
+      <c r="U19">
+        <v>2.71</v>
+      </c>
+      <c r="V19">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="W19">
+        <v>3.17</v>
+      </c>
+      <c r="X19">
+        <v>4.34</v>
+      </c>
+      <c r="Y19">
+        <v>1.8</v>
+      </c>
       <c r="Z19">
         <v>6.0299999999999994</v>
+      </c>
+      <c r="AA19">
+        <v>-0.9300000000000006</v>
+      </c>
+      <c r="AB19">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="AC19">
+        <v>0.15</v>
+      </c>
+      <c r="AD19">
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -17390,16 +18728,184 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>21</v>
+      </c>
+      <c r="U18">
+        <v>21</v>
+      </c>
+      <c r="V18">
+        <v>21</v>
+      </c>
+      <c r="W18">
+        <v>21</v>
+      </c>
+      <c r="X18">
+        <v>21</v>
+      </c>
+      <c r="Y18">
+        <v>21</v>
+      </c>
       <c r="Z18">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="AA18">
+        <v>21</v>
+      </c>
+      <c r="AB18">
+        <v>21</v>
+      </c>
+      <c r="AC18">
+        <v>21</v>
+      </c>
+      <c r="AD18">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>21</v>
+      </c>
+      <c r="P19">
+        <v>21</v>
+      </c>
+      <c r="Q19">
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <v>21</v>
+      </c>
+      <c r="T19">
+        <v>21</v>
+      </c>
+      <c r="U19">
+        <v>21</v>
+      </c>
+      <c r="V19">
+        <v>21</v>
+      </c>
+      <c r="W19">
+        <v>21</v>
+      </c>
+      <c r="X19">
+        <v>21</v>
+      </c>
+      <c r="Y19">
+        <v>21</v>
+      </c>
       <c r="Z19">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="AA19">
+        <v>21</v>
+      </c>
+      <c r="AB19">
+        <v>21</v>
+      </c>
+      <c r="AC19">
+        <v>21</v>
+      </c>
+      <c r="AD19">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
